--- a/excel-files/ASK-2024-Komuna-Etnia-Vendbanimi.xlsx
+++ b/excel-files/ASK-2024-Komuna-Etnia-Vendbanimi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Documents\2025\Innovation\sample-automatization\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC1052-CC93-40A3-BC66-92A547ECC783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7793AFD8-A8DE-46C2-90A3-32C22E5CBACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{008AC8CA-2662-4BE4-81E8-17637624A546}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
   <si>
     <t>Deçan</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Komuna</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -262,21 +265,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,20 +595,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3338860-7A61-4732-BD21-608102C9CDF8}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -620,1296 +623,1527 @@
       <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="F1" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4">
         <v>24149</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>491</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>24640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4">
         <v>16723</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>10824</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="8">
+        <v>27564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4">
         <v>59240</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1530</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="8">
+        <v>60783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4">
         <v>18193</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4355</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>439</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="8">
+        <v>22987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4">
         <v>34036</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2851</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="8">
+        <v>36890</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
         <v>28525</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>355</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>821</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="8">
+        <v>29701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4">
         <v>40964</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>34</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>40998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
         <v>6882</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>603</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>6078</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="8">
+        <v>13563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
         <v>5965</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>13</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4">
         <v>24427</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>2519</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>540</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="8">
+        <v>27486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4">
         <v>3938</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="8">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
         <v>19429</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>11</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4">
         <v>15859</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>309</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>1494</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="F14" s="8">
+        <v>17662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4">
         <v>23811</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>848</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>317</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="8">
+        <v>24976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4">
         <v>1702</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>9</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>1330</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="8">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5">
         <v>172</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>336</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>9180</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="F17" s="8">
+        <v>9688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4">
         <v>39822</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>2062</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="F18" s="8">
+        <v>41952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4">
         <v>39988</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>51</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>40039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4">
         <v>31027</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>86</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="F21" s="8">
+        <v>31114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="5">
         <v>158</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>513</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>3160</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="F22" s="8">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="4">
         <v>3801</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>86</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>3122</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="F23" s="8">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4">
         <v>11940</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>1641</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1600</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="F24" s="8">
+        <v>15181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5">
         <v>13</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>6</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>3221</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="F25" s="8">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4">
         <v>36757</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>4055</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>762</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="F26" s="8">
+        <v>41574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4">
         <v>50486</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>148</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="F27" s="8">
+        <v>50645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4">
         <v>83171</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>221</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>605</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="F28" s="8">
+        <v>83997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4">
         <v>56231</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>14003</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>162</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="F29" s="8">
+        <v>70396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="4">
         <v>27482</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>462</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>213</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="F30" s="8">
+        <v>28157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5">
         <v>129</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>3692</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="F31" s="8">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4">
         <v>2626</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>57</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>5657</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="F32" s="8">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="4">
         <v>16489</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>332</v>
       </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>16821</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4">
         <v>30953</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>37</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>223</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="F34" s="8">
+        <v>31213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="4">
         <v>35437</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>416</v>
       </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>35853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4">
         <v>29627</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>103</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="F36" s="8">
+        <v>29786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="4">
         <v>33032</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>141</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>205</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="F37" s="8">
+        <v>33378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5">
         <v>682</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>1</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>8743</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="F38" s="8">
+        <v>9426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5">
         <v>356</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>2</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>11234</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="F39" s="8">
+        <v>11592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4">
         <v>3117</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>16</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="F40" s="8">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="B41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5">
         <v>831</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>501</v>
       </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="B42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="4">
         <v>45785</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>2677</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="F42" s="8">
+        <v>48472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="5">
+      <c r="B43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="4">
         <v>40208</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>677</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="F43" s="8">
+        <v>40962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="B44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="4">
         <v>38060</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>3737</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="F44" s="8">
+        <v>41809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="B45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="4">
         <v>52117</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>1043</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="F45" s="8">
+        <v>53279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="5">
+      <c r="B46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="4">
         <v>7072</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>9</v>
       </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>7081</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="B47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="4">
         <v>1741</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>700</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>2482</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="F47" s="8">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="B48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="4">
         <v>2555</v>
       </c>
-      <c r="D48" s="6">
-        <v>0</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="B49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="4">
         <v>5465</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>54</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="F49" s="8">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="B50" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="B51" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="4">
         <v>8256</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>14</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="F51" s="8">
+        <v>8276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="5">
+      <c r="B52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="4">
         <v>4699</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>113</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>394</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="F52" s="8">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="B53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="4">
         <v>5340</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>177</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="F53" s="8">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+      <c r="B54" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="6">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6">
+      <c r="B55" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
         <v>6120</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+      <c r="F55" s="8">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="5">
+      <c r="B56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="4">
         <v>12039</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>552</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>501</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="F56" s="8">
+        <v>13092</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="5">
+      <c r="B57" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="4">
         <v>3835</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>14</v>
       </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="6">
+      <c r="B58" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="5">
         <v>321</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>5286</v>
       </c>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="5">
+      <c r="B59" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="4">
         <v>31666</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>1945</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+      <c r="F59" s="8">
+        <v>33628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="5">
+      <c r="B60" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="4">
         <v>1305</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>103</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>15991</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
+      <c r="F60" s="8">
+        <v>17399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+      <c r="B61" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="5">
+      <c r="B62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="4">
         <v>7302</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>332</v>
       </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>7634</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
+      <c r="B63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="5">
+      <c r="B64" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="4">
         <v>38722</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>2398</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+      <c r="F64" s="8">
+        <v>41171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="5">
+      <c r="B65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="4">
         <v>19585</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>741</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
+      <c r="F65" s="8">
+        <v>20330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="5">
+      <c r="B66" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="4">
         <v>139727</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>3577</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>165</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+      <c r="F66" s="8">
+        <v>143469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="5">
+      <c r="B67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="4">
         <v>58253</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>18557</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+      <c r="F67" s="8">
+        <v>76850</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="5">
+      <c r="B68" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="4">
         <v>13009</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>264</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>369</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+      <c r="F68" s="8">
+        <v>13642</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
+      <c r="B69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="6">
-        <v>0</v>
-      </c>
-      <c r="D70" s="6">
+      <c r="B70" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5">
         <v>8</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>2423</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
+      <c r="F70" s="8">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="5">
+      <c r="B71" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="4">
         <v>7044</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>443</v>
       </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
+      <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>7487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="5">
+      <c r="B72" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="4">
         <v>9436</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>15</v>
       </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>9451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="5">
+      <c r="B73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="4">
         <v>9751</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>131</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
+      <c r="F73" s="8">
+        <v>9896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" s="5">
+      <c r="B74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="4">
         <v>5696</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>16</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
+      <c r="F74" s="8">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="5">
+      <c r="B75" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="4">
         <v>27815</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>333</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
+      <c r="F75" s="8">
+        <v>28150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="6">
-        <v>0</v>
-      </c>
-      <c r="D76" s="6">
-        <v>0</v>
-      </c>
-      <c r="E76" s="6">
+      <c r="B76" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0</v>
+      </c>
+      <c r="E76" s="5">
         <v>3072</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
+      <c r="F76" s="8">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6">
-        <v>0</v>
-      </c>
-      <c r="E77" s="6">
+      <c r="B77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2366</v>
+      </c>
+      <c r="F77" s="8">
         <v>2366</v>
       </c>
     </row>
